--- a/data/trans_dic/P78_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9486929447557968</v>
+        <v>0.9469265928089076</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9376426097082735</v>
+        <v>0.9331897586774411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9513057675983126</v>
+        <v>0.9531351069701545</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9934513852703722</v>
+        <v>0.9935229339672618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9759727915587156</v>
+        <v>0.9758364458944199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9811668211132438</v>
+        <v>0.9809316458264721</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9557161006059308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9677724654947532</v>
+        <v>0.9677724654947534</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9573564425937235</v>
+        <v>0.959223429534339</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9317220421214648</v>
+        <v>0.92867384720546</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9532195194698864</v>
+        <v>0.9536448728469099</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.991118378062067</v>
+        <v>0.9910035499131754</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9739279973132844</v>
+        <v>0.9720888813644901</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9792691487975297</v>
+        <v>0.9792882884662223</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9719043280030054</v>
+        <v>0.9719043280030056</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7997297788939041</v>
+        <v>0.7997297788939042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9192714115235006</v>
+        <v>0.9192714115235004</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9398089039175429</v>
+        <v>0.936074382912243</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.725116605893018</v>
+        <v>0.7161254016815626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8816478319961903</v>
+        <v>0.8868236544224195</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9883384706581116</v>
+        <v>0.9901953850537741</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8531532945834555</v>
+        <v>0.8615537882717509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9417480424041473</v>
+        <v>0.9414722711793272</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9548397450161124</v>
+        <v>0.9548397450161126</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8938229477961196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9257732243981125</v>
+        <v>0.9257732243981123</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9300460486092633</v>
+        <v>0.9292611146349722</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8706386404372183</v>
+        <v>0.8729612894357339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9083126246355918</v>
+        <v>0.9090501805797562</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9743357515676851</v>
+        <v>0.9729604420051845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9114375710202907</v>
+        <v>0.9140058216248853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9384159246826561</v>
+        <v>0.9392737158489274</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.7852766792935574</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.850720505983854</v>
+        <v>0.8507205059838538</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9182869204003661</v>
+        <v>0.9186876532437697</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.752804276327357</v>
+        <v>0.7506754843752094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8240104685294328</v>
+        <v>0.8267823147011583</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.971150670758828</v>
+        <v>0.9712086923878109</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8152202189889003</v>
+        <v>0.8149948818096701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8704569578864094</v>
+        <v>0.8698967746529854</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.8475534130717435</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4917975830397015</v>
+        <v>0.4917975830397017</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.5702856627077223</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7751231657674795</v>
+        <v>0.7752513336433523</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4545512017801799</v>
+        <v>0.4537938003966661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5356811972179324</v>
+        <v>0.535447379716933</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9008522705094107</v>
+        <v>0.9062800138523894</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.525767418542324</v>
+        <v>0.528115664824001</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6021352578089725</v>
+        <v>0.5998166559753114</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9534066505010792</v>
+        <v>0.953406650501079</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.7669501392068583</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9387505516836584</v>
+        <v>0.9409572770121801</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7532501044492308</v>
+        <v>0.7532567305654204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8409034807366355</v>
+        <v>0.8415547028409872</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.963595950794674</v>
+        <v>0.9643969488437091</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7802044054941241</v>
+        <v>0.7803567413234629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8600673964648645</v>
+        <v>0.8600417837013816</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>379068</v>
+        <v>378363</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>348263</v>
+        <v>346609</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>733451</v>
+        <v>734861</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>396952</v>
+        <v>396981</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>362500</v>
+        <v>362449</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>756474</v>
+        <v>756292</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>321025</v>
+        <v>321651</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>299089</v>
+        <v>298111</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>625628</v>
+        <v>625907</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>332346</v>
+        <v>332307</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>312638</v>
+        <v>312047</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>642725</v>
+        <v>642737</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>267352</v>
+        <v>266290</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>90822</v>
+        <v>89695</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>361234</v>
+        <v>363355</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>281158</v>
+        <v>281686</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>106858</v>
+        <v>107910</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>385859</v>
+        <v>385746</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>637637</v>
+        <v>637099</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>543032</v>
+        <v>544481</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1189266</v>
+        <v>1190232</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>668002</v>
+        <v>667059</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>568479</v>
+        <v>570081</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1228681</v>
+        <v>1229804</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>312631</v>
+        <v>312767</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>391844</v>
+        <v>390736</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>709443</v>
+        <v>711829</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>330628</v>
+        <v>330648</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>424333</v>
+        <v>424215</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>749431</v>
+        <v>748949</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>179618</v>
+        <v>179647</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>372098</v>
+        <v>371478</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>562644</v>
+        <v>562399</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>208753</v>
+        <v>210010</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>430396</v>
+        <v>432318</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>632443</v>
+        <v>630008</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2137669</v>
+        <v>2142694</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2094425</v>
+        <v>2094444</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4253006</v>
+        <v>4256299</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2194246</v>
+        <v>2196070</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2169372</v>
+        <v>2169796</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4349930</v>
+        <v>4349801</v>
       </c>
     </row>
     <row r="32">
